--- a/result_1/txOriginUse.xlsx
+++ b/result_1/txOriginUse.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>contract address</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +435,9 @@
           <t>0x074cb6129ca2d9c1aea322681e01bc047fd3f1a6</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +445,9 @@
           <t>0x0788d90e614d64de700f62bd54a1e6006c425bc4</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +455,9 @@
           <t>0x0a7f20c58c3014e1dfb7f9d460d8bc2202f7bf1f</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +465,9 @@
           <t>0x12863901098aa24fa81f1ab952a449f6c8211afc</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -474,6 +475,9 @@
           <t>0x1611ead58474528582420b089e9b3b55bc9af3c1</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,6 +485,9 @@
           <t>0x16dfa86c1f3ae293fa01915718df563b26952408</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -488,6 +495,9 @@
           <t>0x1ab601a2e158fbfd44b314e3a9dae742332c7f48</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -495,6 +505,9 @@
           <t>0x2119a3314c1d40704d816392a9e44da463688992</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>1628</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -502,6 +515,9 @@
           <t>0x24c629d4913681b82ae7f9b30befd80e5229c36e</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -509,6 +525,9 @@
           <t>0x26e75307fc0c021472feb8f727839531f112f317</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>69874</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -516,6 +535,9 @@
           <t>0x2742a7d469e34e277d6c306b2cb14a361c1ba254</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -523,6 +545,9 @@
           <t>0x28b6bf339afd2dceeeebd6b218e798b08f38a2e9</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -530,6 +555,9 @@
           <t>0x2bb4bacbb7cc6186454253dab673e22009a0b866</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -537,6 +565,9 @@
           <t>0x2cf4ecf6785a7193183758e8e97f12ee5d67dfcd</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -544,6 +575,9 @@
           <t>0x2dda95e0b2e63c8bf6f99fd396e1c85941c04e69</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -551,6 +585,9 @@
           <t>0x2f5c8d7259b48078c0b6c0a7cf6269e3817680e5</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -558,6 +595,9 @@
           <t>0x32ec2e6967687825123c5c0f30c18e2c47708df1</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>970</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -565,6 +605,9 @@
           <t>0x35e8312dfa25f478d85d88c10fde88824cacbced</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -572,6 +615,9 @@
           <t>0x36daecfc172fd44a165fb93be5569e72b09ceea2</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -579,6 +625,9 @@
           <t>0x47739ff19b02e13cd216c17b8f64ef09191d9ec8</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -586,6 +635,9 @@
           <t>0x4865a4d8e52e3754fc0e20ad0146660ad053fd44</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -593,6 +645,9 @@
           <t>0x48da10957081fca6947b369f67fe1bee1dc3010c</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -600,6 +655,9 @@
           <t>0x4a479d44678c68ee7f193610b53dec6cc514d643</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -607,6 +665,9 @@
           <t>0x4de97b5e186bc9313cb7c0eaed5fa8f5ec77aa8e</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -614,6 +675,9 @@
           <t>0x505766c3aef3ea43cf7e1bf9620e52607d45885e</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -621,6 +685,9 @@
           <t>0x57bfffd48366f78e787e167419c8c05cdb849ede</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -628,6 +695,9 @@
           <t>0x587d6669a2743a1d6094f150006f56f85b5aade3</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -635,6 +705,9 @@
           <t>0x59bf73063bb645f3df40d9b05a117be6344e1eda</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -642,6 +715,9 @@
           <t>0x5c9f77612069eabd4b06be53d67e3f16af2d8436</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -649,6 +725,9 @@
           <t>0x6236634c1e5267a7567b14f4aade9fb1026daacc</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>2861</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -656,6 +735,9 @@
           <t>0x6329316475a98027e62246d25e4a5ed8d7f9fc51</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -663,6 +745,9 @@
           <t>0x645f0c9695f2b970e623ae29538fdb1a67bd6b6e</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>1417</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -670,6 +755,9 @@
           <t>0x65d61179a248fa56235dd0691e0792582b5cb3f9</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -677,6 +765,9 @@
           <t>0x66322181534ff227904daf5ea692a2f2ba62d582</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -684,6 +775,9 @@
           <t>0x6774ff11d7c45052235d052033b4cfd7f8adfb80</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -691,6 +785,9 @@
           <t>0x6b609d9095d069c805650234ab67595b3a6ab934</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>3681</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -698,6 +795,9 @@
           <t>0x75a17c63c2121447655955b55aaa1a413e750232</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -705,6 +805,9 @@
           <t>0x83dc8423170e95ee18b770bbdd6b3becb73c9c30</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>4665</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -712,6 +815,9 @@
           <t>0x86015ce69e97da08ecc55c157bb8a2857bfbd1c4</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -719,6 +825,9 @@
           <t>0x8bdb442803275b21abb2555fea11468bf5d98256</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -726,6 +835,9 @@
           <t>0x919de246cb2973ec78d47bda8680a23098d60158</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -733,6 +845,9 @@
           <t>0x954791f9a0f0ff7841cffea32c556ac71168eff8</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -740,6 +855,9 @@
           <t>0x994e6d73b071bffdd7c07152912bf652fab89533</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -747,6 +865,9 @@
           <t>0x997e3adb550a85895f5becf54a2751e6df24edc8</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>3285</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -754,6 +875,9 @@
           <t>0x99b001735036d937b4a11c17a9a44f86fbddf4d0</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -761,6 +885,9 @@
           <t>0x9c235ac2c33077a30593a3fd27a0087c687a80a3</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -768,6 +895,9 @@
           <t>0xa425afe3a64f560b309355c77428ceab5a9b5e80</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -775,6 +905,9 @@
           <t>0xaaf4281fd8142dc3263b3303b0a6f62d00b2d07e</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>3031</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -782,6 +915,9 @@
           <t>0xab244f9aa7a8dd03e8261b2508438d301ac05a4f</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -789,6 +925,9 @@
           <t>0xb061021d6ec56942e6869eede86af3ca617dfd0c</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -796,6 +935,9 @@
           <t>0xb3b3fa00a534ab0c7437bc5e9f4f97f1f98b930d</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -803,6 +945,9 @@
           <t>0xb4c9ae223aa7e1763a5d88902f74be277df068d9</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -810,6 +955,9 @@
           <t>0xb548e488c27b7ebf4b9f29d4205da23b56d4928f</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -817,6 +965,9 @@
           <t>0xb7feef5cf872df05f7cec25a2ce82a14cedcc27a</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -824,6 +975,9 @@
           <t>0xb8ef6d30433b3c0a3ccb6a955132939aef857a72</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -831,6 +985,9 @@
           <t>0xc45865b235a7c6693b9db5fed46ea8a3022d9b07</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -838,6 +995,9 @@
           <t>0xc939a768bca271e0c69c2c530a8c20dc1cfb60be</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -845,6 +1005,9 @@
           <t>0xcc9f2c74ea74c666dcd6271868e6d3db60573877</t>
         </is>
       </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -852,6 +1015,9 @@
           <t>0xd079acf6491bbf8bbbbee6a5d73eaa0dcedec0c2</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -859,6 +1025,9 @@
           <t>0xe687951e1b7049f4aea2d6598a20a6f2eada09cc</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -866,6 +1035,9 @@
           <t>0xebb3593048373b1d117709ff3dc69b03d72ba081</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -873,12 +1045,18 @@
           <t>0xf6268188a46f47551fcfe664f3665c25bf697f52</t>
         </is>
       </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
           <t>0x006b4425ba57148466c0c54af1c484348a14a8a4</t>
         </is>
+      </c>
+      <c r="B64" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/result_1/txOriginUse.xlsx
+++ b/result_1/txOriginUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973BC6F-420B-4E36-99F1-B7E94900FBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F4837-F8D8-47CE-A602-83944892F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result_1/txOriginUse.xlsx
+++ b/result_1/txOriginUse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F4837-F8D8-47CE-A602-83944892F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0657C4-A395-4479-B609-6A4264C92DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16344" yWindow="3648" windowWidth="12144" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
